--- a/predict_model/predict_results/0_train_1nstep_denguefever_prediction_results_by_RandomForest_in_BR Vũng Tàu.xlsx
+++ b/predict_model/predict_results/0_train_1nstep_denguefever_prediction_results_by_RandomForest_in_BR Vũng Tàu.xlsx
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-42397.72433687416</v>
+        <v>17.9329873</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.64242941467596</v>
+        <v>27.86307388832737</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G2" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H2" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I2" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-19718.32602010834</v>
+        <v>9.4384143</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.56427015873275</v>
+        <v>26.25849740556124</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G3" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H3" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I3" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5691.581906738325</v>
+        <v>12.5530911</v>
       </c>
       <c r="D4" t="n">
-        <v>4.598962335927446</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G4" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H4" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I4" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5877.156633110379</v>
+        <v>10.3822558</v>
       </c>
       <c r="D5" t="n">
-        <v>5.475007233455784</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G5" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H5" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I5" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="6">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3625.735801444315</v>
+        <v>12.5530911</v>
       </c>
       <c r="D6" t="n">
-        <v>3.88143942002108</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G6" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H6" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I6" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="7">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4844.233580463373</v>
+        <v>10.8541765</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4390070589749</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G7" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H7" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I7" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="8">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6517.920436406491</v>
+        <v>14.3463898</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.056460818300474</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G8" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I8" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="9">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11269.36665368384</v>
+        <v>20.0094384</v>
       </c>
       <c r="D9" t="n">
-        <v>6.718070527138495</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G9" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H9" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I9" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="10">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1353.304954295062</v>
+        <v>21.1420481</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187285876006538</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G10" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H10" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I10" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="11">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12715.45897116493</v>
+        <v>27.4657857</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.503394100261384</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G11" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H11" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I11" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="12">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1973.058960984388</v>
+        <v>28.8815479</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.554062939432422</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G12" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H12" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I12" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="13">
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-17445.89517295908</v>
+        <v>21.4252006</v>
       </c>
       <c r="D13" t="n">
-        <v>7.809602873622703</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G13" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H13" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I13" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="14">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-14958.74351030641</v>
+        <v>15.1051802</v>
       </c>
       <c r="D14" t="n">
-        <v>1.869693706569716</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G14" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H14" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I14" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="15">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-23234.43797813372</v>
+        <v>5.0041701</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.755279966475608</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G15" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H15" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I15" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="16">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3336.60160536321</v>
+        <v>7.0429061</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.592515743128957</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G16" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H16" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I16" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="17">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2119.60743766209</v>
+        <v>8.5256232</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5030782942979215</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G17" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H17" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I17" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="18">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-7210.681254338633</v>
+        <v>5.7455287</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.344957548343358</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G18" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H18" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I18" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="19">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4959.260422672569</v>
+        <v>8.5256232</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02606272914903477</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G19" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H19" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I19" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="20">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22402.84363897289</v>
+        <v>19.275322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8468059927685566</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G20" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H20" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I20" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="21">
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>41874.75054106721</v>
+        <v>38.9213233</v>
       </c>
       <c r="D21" t="n">
-        <v>1.005115852814166</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G21" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H21" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I21" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="22">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14898.04630796205</v>
+        <v>46.2422389</v>
       </c>
       <c r="D22" t="n">
-        <v>12.54701228053255</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G22" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H22" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I22" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="23">
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-13295.65209284423</v>
+        <v>40.6820499</v>
       </c>
       <c r="D23" t="n">
-        <v>5.620579205932397</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G23" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H23" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I23" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="24">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1125.710415833031</v>
+        <v>40.6820499</v>
       </c>
       <c r="D24" t="n">
-        <v>30.21154884550393</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G24" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H24" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I24" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="25">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-30739.23530914455</v>
+        <v>27.1522565</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.447975070706949</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G25" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H25" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I25" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="26">
@@ -1277,10 +1277,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-23074.01098650165</v>
+        <v>17.1245421</v>
       </c>
       <c r="D26" t="n">
-        <v>-10.4918881183884</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G26" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H26" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I26" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="27">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-12751.01384110946</v>
+        <v>11.8131868</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.6674369424564204</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1321,16 +1321,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G27" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H27" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I27" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="28">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12904.82820842736</v>
+        <v>18.2234432</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.817629678705045</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1354,16 +1354,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G28" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H28" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I28" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="29">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-9143.161152071716</v>
+        <v>14.5604396</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.131281312760757</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1387,16 +1387,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G29" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H29" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I29" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="30">
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-11748.83263587738</v>
+        <v>9.706959700000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4936822937202914</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G30" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H30" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I30" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="31">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3484.323697313201</v>
+        <v>11.8131868</v>
       </c>
       <c r="D31" t="n">
-        <v>0.478774737812617</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G31" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H31" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I31" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="32">
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8896.102949746224</v>
+        <v>16.3919414</v>
       </c>
       <c r="D32" t="n">
-        <v>2.947518732883822</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1486,16 +1486,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G32" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H32" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I32" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="33">
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>61410.40475775006</v>
+        <v>44.96337</v>
       </c>
       <c r="D33" t="n">
-        <v>9.093428062430204</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G33" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H33" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I33" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="34">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17314.4260367519</v>
+        <v>53.3882784</v>
       </c>
       <c r="D34" t="n">
-        <v>5.134871738681968</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G34" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H34" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I34" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="35">
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2482.142273204714</v>
+        <v>55.03663</v>
       </c>
       <c r="D35" t="n">
-        <v>6.982967526816987</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G35" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H35" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I35" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="36">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-14154.06783486134</v>
+        <v>49.0842491</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.21082938572411</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G36" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H36" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I36" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
     <row r="37">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-6537.489668266053</v>
+        <v>46.6117216</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.124440191226227</v>
+        <v>26.38426973594738</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1651,16 +1651,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>18914.62237997912</v>
+        <v>15.32489437284666</v>
       </c>
       <c r="G37" t="n">
-        <v>13818.79464240603</v>
+        <v>13.82168399314896</v>
       </c>
       <c r="H37" t="n">
-        <v>1.000710039114914</v>
+        <v>0.9890043724783725</v>
       </c>
       <c r="I37" t="n">
-        <v>357762939.7772068</v>
+        <v>234.8523875389071</v>
       </c>
     </row>
   </sheetData>
